--- a/REVER_DailyTracker_20201021.xlsx
+++ b/REVER_DailyTracker_20201021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\October\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DFC67B-9049-42C2-8601-4BCDF8C641A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1616197-1081-4B0D-AC1C-96BA7CC22494}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1920" windowWidth="23040" windowHeight="10884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="104">
   <si>
     <t>Task</t>
   </si>
@@ -236,6 +236,108 @@
     <t>3. Warranty task has been done towards download</t>
   </si>
   <si>
+    <t>creating Setup file</t>
+  </si>
+  <si>
+    <t>Layout Designing</t>
+  </si>
+  <si>
+    <t>Emplogin</t>
+  </si>
+  <si>
+    <t>Adding assests Detatils</t>
+  </si>
+  <si>
+    <t>Adding assests Detatils and responisble view</t>
+  </si>
+  <si>
+    <t>stored management added in Monthly target</t>
+  </si>
+  <si>
+    <t>adding layout in analysis file upload</t>
+  </si>
+  <si>
+    <t>adding layout in analysis file Export</t>
+  </si>
+  <si>
+    <t>adding layout in analysis report and stored managemant</t>
+  </si>
+  <si>
+    <t>soniya</t>
+  </si>
+  <si>
+    <t>migration testing issue</t>
+  </si>
+  <si>
+    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site &amp; Regression testing on B2C app and Hayaai site</t>
+  </si>
+  <si>
+    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site, Retesting on B2B app &amp; Regression testing on B2C app and Hayaai site</t>
+  </si>
+  <si>
+    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site, Retesting &amp; Regression testing on B2C app and Hayaai site</t>
+  </si>
+  <si>
+    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site. Regression testing on B2C app and Hayaai site</t>
+  </si>
+  <si>
+    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site. Regression testing, Retesting on B2C app and Hayaai site</t>
+  </si>
+  <si>
+    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site. Regression testing, Retesting on B2C app, B2B app and Hayaai site</t>
+  </si>
+  <si>
+    <t>Application- Login page and Front end  sample Layout design. Sample completed</t>
+  </si>
+  <si>
+    <t>Application- Front end  sample 2nd Layout design. Sample completed</t>
+  </si>
+  <si>
+    <t>QMVAR , Hayaai</t>
+  </si>
+  <si>
+    <t>Application- login design and Hayaai Flyer design</t>
+  </si>
+  <si>
+    <t>Hayaai</t>
+  </si>
+  <si>
+    <t>Two sample Flyer design</t>
+  </si>
+  <si>
+    <t>1) Flyer design completed                                                                                       2) ID card created                                                                            3) Name card created</t>
+  </si>
+  <si>
+    <t>Analysis - File Upload - Design completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hayaai </t>
+  </si>
+  <si>
+    <t>Website Translation replaced in php file</t>
+  </si>
+  <si>
+    <t>Hayaai ,QMVAR</t>
+  </si>
+  <si>
+    <t>1) Contact Card 2 samples designed                                      2) QMVAR - 2pages design completed</t>
+  </si>
+  <si>
+    <t>1) Acknowledgement screen designed                                      2) QMVAR - Activity Report page design completed</t>
+  </si>
+  <si>
+    <t>QMVAR -Analysis Data page design and alignment issues completed</t>
+  </si>
+  <si>
+    <t>QMVAR -Alignment fixed and Analysis Data Devlopment</t>
+  </si>
+  <si>
+    <t>QMVAR -Alignment issues RPA modules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QMVAR -RPA module </t>
+  </si>
+  <si>
     <t>1. Manual date input has been implemented in warranty task</t>
   </si>
   <si>
@@ -243,6 +345,9 @@
   </si>
   <si>
     <t>3. Correction work is in Progress for the scheduling reports(11 files task)</t>
+  </si>
+  <si>
+    <t>adding layout in stored managemant</t>
   </si>
 </sst>
 </file>
@@ -252,7 +357,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +405,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -405,7 +516,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -503,22 +614,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -845,7 +972,7 @@
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="82.6640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.6640625" style="46" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
     <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
@@ -861,7 +988,7 @@
       <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="45" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -909,200 +1036,185 @@
       <c r="E3" s="32">
         <v>0.7</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1">
-      <c r="A4" s="4">
+    <row r="4" spans="1:7">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="47">
         <v>44109</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="46">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="D5" s="50" t="s">
+      <c r="E4" s="28">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="D5" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="46">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="28.8">
-      <c r="A6" s="47">
+      <c r="E5" s="28">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.8">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="47">
         <v>44109</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="46">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1">
-      <c r="D7" s="50"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1">
-      <c r="A8" s="47">
-        <v>5</v>
-      </c>
-      <c r="B8" s="45">
+      <c r="E6" s="28">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="47">
         <v>44110</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="46">
-        <v>1</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1">
-      <c r="D9" s="48" t="s">
+      <c r="E8" s="28">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="D9" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="46">
-        <v>1</v>
-      </c>
-      <c r="F9" s="47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="A10" s="4">
+      <c r="E9" s="28">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="47">
         <v>44110</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="46">
-        <v>1</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="D11" s="48" t="s">
+      <c r="E10" s="28">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="D11" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="46">
-        <v>1</v>
-      </c>
-      <c r="F11" s="47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="D12" s="50"/>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1">
-      <c r="A13" s="4">
+      <c r="E11" s="28">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
         <v>7</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="47">
         <v>44111</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="46" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="28.8">
-      <c r="D14" s="50" t="s">
+    <row r="14" spans="1:7" ht="28.8">
+      <c r="D14" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="46">
-        <v>1</v>
-      </c>
-      <c r="F14" s="47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
-      <c r="D15" s="50" t="s">
+      <c r="E14" s="28">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.8">
+      <c r="D15" s="46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1">
-      <c r="D16" s="50"/>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1">
-      <c r="D17" s="50"/>
-    </row>
-    <row r="18" spans="1:7" s="4" customFormat="1">
-      <c r="A18" s="4">
+    <row r="18" spans="1:7">
+      <c r="A18">
         <v>8</v>
       </c>
-      <c r="B18" s="45">
+      <c r="B18" s="47">
         <v>44112</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="46">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="4" customFormat="1">
-      <c r="D19" s="50"/>
+      <c r="E18" s="28">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
         <v>9</v>
       </c>
-      <c r="B20" s="52">
+      <c r="B20" s="47">
         <v>44113</v>
       </c>
       <c r="C20" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="46" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="28">
@@ -1145,13 +1257,13 @@
       <c r="A30">
         <v>10</v>
       </c>
-      <c r="B30" s="52">
+      <c r="B30" s="47">
         <v>44116</v>
       </c>
       <c r="C30" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="51" t="s">
+      <c r="D30" s="46" t="s">
         <v>47</v>
       </c>
       <c r="E30" s="28">
@@ -1165,7 +1277,7 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="D31" s="51" t="s">
+      <c r="D31" s="46" t="s">
         <v>46</v>
       </c>
       <c r="E31" s="28">
@@ -1179,13 +1291,13 @@
       <c r="A33">
         <v>11</v>
       </c>
-      <c r="B33" s="52">
+      <c r="B33" s="47">
         <v>44117</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="46" t="s">
         <v>51</v>
       </c>
       <c r="E33" s="28">
@@ -1196,7 +1308,7 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="D34" s="51" t="s">
+      <c r="D34" s="46" t="s">
         <v>49</v>
       </c>
       <c r="E34" s="28">
@@ -1210,13 +1322,13 @@
       <c r="A35">
         <v>12</v>
       </c>
-      <c r="B35" s="52">
+      <c r="B35" s="47">
         <v>44117</v>
       </c>
       <c r="C35" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="51" t="s">
+      <c r="D35" s="46" t="s">
         <v>52</v>
       </c>
       <c r="E35" s="28">
@@ -1230,13 +1342,13 @@
       <c r="A37">
         <v>13</v>
       </c>
-      <c r="B37" s="52">
+      <c r="B37" s="47">
         <v>44118</v>
       </c>
       <c r="C37" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="51" t="s">
+      <c r="D37" s="46" t="s">
         <v>53</v>
       </c>
       <c r="E37" s="28">
@@ -1250,13 +1362,13 @@
       <c r="A38">
         <v>14</v>
       </c>
-      <c r="B38" s="52">
+      <c r="B38" s="47">
         <v>44118</v>
       </c>
       <c r="C38" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="46" t="s">
         <v>54</v>
       </c>
       <c r="E38" s="28">
@@ -1270,13 +1382,13 @@
       <c r="A40">
         <v>15</v>
       </c>
-      <c r="B40" s="52">
+      <c r="B40" s="47">
         <v>44119</v>
       </c>
       <c r="C40" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="51" t="s">
+      <c r="D40" s="46" t="s">
         <v>55</v>
       </c>
       <c r="E40" s="28">
@@ -1290,13 +1402,13 @@
       <c r="A41">
         <v>16</v>
       </c>
-      <c r="B41" s="52">
+      <c r="B41" s="47">
         <v>44119</v>
       </c>
       <c r="C41" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="51" t="s">
+      <c r="D41" s="46" t="s">
         <v>57</v>
       </c>
       <c r="E41" s="28">
@@ -1310,13 +1422,13 @@
       <c r="A43">
         <v>17</v>
       </c>
-      <c r="B43" s="52">
+      <c r="B43" s="47">
         <v>44120</v>
       </c>
       <c r="C43" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="51" t="s">
+      <c r="D43" s="46" t="s">
         <v>58</v>
       </c>
       <c r="E43" s="28">
@@ -1330,13 +1442,13 @@
       <c r="A44">
         <v>18</v>
       </c>
-      <c r="B44" s="52">
+      <c r="B44" s="47">
         <v>44120</v>
       </c>
       <c r="C44" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="51" t="s">
+      <c r="D44" s="46" t="s">
         <v>59</v>
       </c>
       <c r="E44" s="28">
@@ -1350,13 +1462,13 @@
       <c r="A46">
         <v>19</v>
       </c>
-      <c r="B46" s="52">
+      <c r="B46" s="47">
         <v>44123</v>
       </c>
       <c r="C46" t="s">
         <v>56</v>
       </c>
-      <c r="D46" s="51" t="s">
+      <c r="D46" s="46" t="s">
         <v>60</v>
       </c>
       <c r="E46" s="28">
@@ -1367,7 +1479,7 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="D47" s="51" t="s">
+      <c r="D47" s="46" t="s">
         <v>61</v>
       </c>
       <c r="E47" s="28">
@@ -1381,13 +1493,13 @@
       <c r="A48">
         <v>20</v>
       </c>
-      <c r="B48" s="52">
+      <c r="B48" s="47">
         <v>44123</v>
       </c>
       <c r="C48" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="51" t="s">
+      <c r="D48" s="46" t="s">
         <v>62</v>
       </c>
       <c r="E48" s="28">
@@ -1401,13 +1513,13 @@
       <c r="A50">
         <v>21</v>
       </c>
-      <c r="B50" s="52">
+      <c r="B50" s="47">
         <v>44124</v>
       </c>
       <c r="C50" t="s">
         <v>40</v>
       </c>
-      <c r="D50" s="51" t="s">
+      <c r="D50" s="46" t="s">
         <v>63</v>
       </c>
       <c r="E50" s="28">
@@ -1418,7 +1530,7 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="D51" s="51" t="s">
+      <c r="D51" s="46" t="s">
         <v>64</v>
       </c>
       <c r="E51" s="28">
@@ -1432,13 +1544,13 @@
       <c r="A52">
         <v>22</v>
       </c>
-      <c r="B52" s="52">
+      <c r="B52" s="47">
         <v>44124</v>
       </c>
       <c r="C52" t="s">
         <v>56</v>
       </c>
-      <c r="D52" s="51" t="s">
+      <c r="D52" s="46" t="s">
         <v>65</v>
       </c>
       <c r="E52" s="28">
@@ -1452,14 +1564,14 @@
       <c r="A54">
         <v>21</v>
       </c>
-      <c r="B54" s="52">
+      <c r="B54" s="47">
         <v>44125</v>
       </c>
       <c r="C54" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="51" t="s">
-        <v>66</v>
+      <c r="D54" s="46" t="s">
+        <v>100</v>
       </c>
       <c r="E54" s="28">
         <v>1</v>
@@ -1472,14 +1584,14 @@
       <c r="A55">
         <v>22</v>
       </c>
-      <c r="B55" s="52">
+      <c r="B55" s="47">
         <v>44125</v>
       </c>
       <c r="C55" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="51" t="s">
-        <v>67</v>
+      <c r="D55" s="46" t="s">
+        <v>101</v>
       </c>
       <c r="E55" s="28">
         <v>1</v>
@@ -1492,14 +1604,14 @@
       <c r="A56">
         <v>23</v>
       </c>
-      <c r="B56" s="52">
+      <c r="B56" s="47">
         <v>44125</v>
       </c>
       <c r="C56" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="51" t="s">
-        <v>68</v>
+      <c r="D56" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E56" s="28">
         <v>0.6</v>
@@ -2120,10 +2232,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2181,46 +2293,410 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="19" spans="2:3">
-      <c r="C19" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="8"/>
-      <c r="C20" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="50">
+        <v>44106</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="41"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="42"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="26">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="9"/>
-      <c r="C21" t="s">
+      <c r="B4" s="50">
+        <v>44107</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="42"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="26">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="10"/>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="11"/>
-      <c r="C23" t="s">
+      <c r="B5" s="50">
+        <v>44108</v>
+      </c>
+      <c r="C5" s="51"/>
+      <c r="D5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" spans="1:7" ht="28.8">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21">
+        <v>44109</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="22">
+        <v>1</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="28.8">
+      <c r="A7" s="20">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21">
+        <v>44110</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21">
+        <v>44111</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21">
+        <v>44112</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="43.2">
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
+      <c r="B10" s="21">
+        <v>44113</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="26">
+        <v>10</v>
+      </c>
+      <c r="B11" s="50">
+        <v>44114</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="26">
+        <v>11</v>
+      </c>
+      <c r="B12" s="50">
+        <v>44115</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="20">
+        <v>12</v>
+      </c>
+      <c r="B13" s="21">
+        <v>44116</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="22">
+        <v>1</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="20">
+        <v>13</v>
+      </c>
+      <c r="B14" s="21">
+        <v>44117</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="22">
+        <v>1</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="28.8">
+      <c r="A15" s="20">
+        <v>14</v>
+      </c>
+      <c r="B15" s="21">
+        <v>44118</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="22">
+        <v>1</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="28.8">
+      <c r="A16" s="20">
+        <v>15</v>
+      </c>
+      <c r="B16" s="21">
+        <v>44119</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="22">
+        <v>1</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="28.8">
+      <c r="A17" s="20">
+        <v>16</v>
+      </c>
+      <c r="B17" s="21">
+        <v>44120</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="22">
+        <v>1</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="26">
+        <v>17</v>
+      </c>
+      <c r="B18" s="50">
+        <v>44114</v>
+      </c>
+      <c r="C18" s="51"/>
+      <c r="D18" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="26">
+        <v>18</v>
+      </c>
+      <c r="B19" s="50">
+        <v>44115</v>
+      </c>
+      <c r="C19" s="51"/>
+      <c r="D19" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="28.8">
+      <c r="A20" s="20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="21">
+        <v>44123</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="22">
+        <v>1</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="20">
+        <v>20</v>
+      </c>
+      <c r="B21" s="21">
+        <v>44124</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="20">
+        <v>21</v>
+      </c>
+      <c r="B22" s="21">
+        <v>44125</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="C24" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="8"/>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="9"/>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" s="10"/>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" s="11"/>
+      <c r="C28" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2468,10 +2944,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2616,48 +3092,346 @@
       </c>
       <c r="G7" s="40"/>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="43" t="s">
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="31">
+        <v>44110</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="40"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="31">
+        <v>44111</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C23" t="s">
+      <c r="G9" s="40"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="31">
+        <v>44112</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="43" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="31">
+        <v>44113</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="31">
+        <v>44114</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="31">
+        <v>44115</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="31">
+        <v>44116</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="40"/>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="31">
+        <v>44117</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="31">
+        <v>44118</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="31">
+        <v>44119</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="31">
+        <v>44120</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="31">
+        <v>44121</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="31">
+        <v>44122</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="31">
+        <v>44123</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="1:7" s="4" customFormat="1">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="31">
+        <v>44124</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+      <c r="F22" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="1:7" s="4" customFormat="1">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="31">
+        <v>44125</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="40"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="D28" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="C29" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="C30" s="9"/>
+      <c r="D30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
+    <row r="31" spans="1:7">
+      <c r="C31" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="C32" s="11"/>
+      <c r="D32" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2782,8 +3556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD6"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2899,54 +3673,350 @@
       <c r="D6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="39">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="40"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="20" spans="2:3" s="4" customFormat="1"/>
-    <row r="21" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3" s="4" customFormat="1"/>
-    <row r="25" spans="2:3">
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="43.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="31">
+        <v>44110</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="43.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="31">
+        <v>44111</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="43.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="31">
+        <v>44112</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="43.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="31">
+        <v>44113</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="31">
+        <v>44114</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="31">
+        <v>44115</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="43.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="31">
+        <v>44116</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="43.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="31">
+        <v>44117</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="43.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="31">
+        <v>44118</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="43.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="31">
+        <v>44119</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="43.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="31">
+        <v>44120</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="31">
+        <v>44121</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="31">
+        <v>44122</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="43.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="31">
+        <v>44123</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="43.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="31">
+        <v>44124</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="43.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="31">
+        <v>44125</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+      <c r="F22" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="C25" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:7">
       <c r="B26" s="8"/>
       <c r="C26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="1:7">
       <c r="B27" s="9"/>
       <c r="C27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="1:7">
       <c r="B28" s="10"/>
       <c r="C28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:7">
       <c r="B29" s="11"/>
       <c r="C29" t="s">
         <v>10</v>

--- a/REVER_DailyTracker_20201021.xlsx
+++ b/REVER_DailyTracker_20201021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1616197-1081-4B0D-AC1C-96BA7CC22494}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998FD567-4782-460E-9556-FB12D58784FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="111">
   <si>
     <t>Task</t>
   </si>
@@ -348,6 +348,27 @@
   </si>
   <si>
     <t>adding layout in stored managemant</t>
+  </si>
+  <si>
+    <t>DRS Count - Saw Discount changes and Issue</t>
+  </si>
+  <si>
+    <t>DRS Count - Saw Discount Summary &amp; Details</t>
+  </si>
+  <si>
+    <t>DRS - Daily Revenue</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>Go through Soica Project MDB File Application</t>
+  </si>
+  <si>
+    <t>Check Suma Email and Start work application</t>
+  </si>
+  <si>
+    <t>Access DB Migration - BIC CAMERA - 1</t>
   </si>
 </sst>
 </file>
@@ -357,7 +378,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,6 +434,20 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -516,7 +551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -645,6 +680,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -967,15 +1008,15 @@
       <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="82.6640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="82.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -999,7 +1040,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1072,7 +1113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.8">
+    <row r="6" spans="1:7" ht="30">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1168,7 +1209,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.8">
+    <row r="14" spans="1:7" ht="30">
       <c r="D14" s="46" t="s">
         <v>41</v>
       </c>
@@ -1179,7 +1220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.8">
+    <row r="15" spans="1:7" ht="30">
       <c r="D15" s="46" t="s">
         <v>43</v>
       </c>
@@ -1287,7 +1328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28.8">
+    <row r="33" spans="1:6" ht="30">
       <c r="A33">
         <v>11</v>
       </c>
@@ -1358,7 +1399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="30">
       <c r="A38">
         <v>14</v>
       </c>
@@ -1378,7 +1419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28.8">
+    <row r="40" spans="1:6" ht="30">
       <c r="A40">
         <v>15</v>
       </c>
@@ -1398,7 +1439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="28.8">
+    <row r="41" spans="1:6" ht="45">
       <c r="A41">
         <v>16</v>
       </c>
@@ -1509,7 +1550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="28.8">
+    <row r="50" spans="1:6" ht="30">
       <c r="A50">
         <v>21</v>
       </c>
@@ -1634,15 +1675,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1745,15 +1786,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1851,19 +1892,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1932,120 +1973,276 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33">
+        <v>44109</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>5</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33">
+        <v>44110</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33">
+        <v>44111</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33">
+        <v>44112</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="33">
+        <v>44113</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="33">
+        <v>44116</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="33">
+        <v>44117</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="33">
+        <v>44118</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>5</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="A12" s="1">
+        <v>15</v>
+      </c>
+      <c r="B12" s="33">
+        <v>44119</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>5</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="A13" s="1">
+        <v>16</v>
+      </c>
+      <c r="B13" s="33">
+        <v>44120</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="15.75">
+      <c r="A14" s="1">
+        <v>17</v>
+      </c>
+      <c r="B14" s="33">
+        <v>44123</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="15.75">
+      <c r="A15" s="1">
+        <v>18</v>
+      </c>
+      <c r="B15" s="33">
+        <v>44124</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="15.75">
+      <c r="A16" s="1">
+        <v>19</v>
+      </c>
+      <c r="B16" s="33">
+        <v>44125</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1">
@@ -2127,15 +2324,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2238,15 +2435,15 @@
       <selection activeCell="D26" sqref="D26:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2338,7 +2535,7 @@
       <c r="F5" s="52"/>
       <c r="G5" s="42"/>
     </row>
-    <row r="6" spans="1:7" ht="28.8">
+    <row r="6" spans="1:7" ht="30">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -2359,7 +2556,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="28.8">
+    <row r="7" spans="1:7" ht="30">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -2380,7 +2577,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="30">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -2422,7 +2619,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="43.2">
+    <row r="10" spans="1:7" ht="45">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -2515,7 +2712,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="28.8">
+    <row r="15" spans="1:7" ht="30">
       <c r="A15" s="20">
         <v>14</v>
       </c>
@@ -2536,7 +2733,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="28.8">
+    <row r="16" spans="1:7" ht="45">
       <c r="A16" s="20">
         <v>15</v>
       </c>
@@ -2557,7 +2754,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="28.8">
+    <row r="17" spans="1:7" ht="30">
       <c r="A17" s="20">
         <v>16</v>
       </c>
@@ -2608,7 +2805,7 @@
       <c r="F19" s="26"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="28.8">
+    <row r="20" spans="1:7" ht="30">
       <c r="A20" s="20">
         <v>19</v>
       </c>
@@ -2714,15 +2911,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2825,15 +3022,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2859,7 +3056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2946,19 +3143,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -3267,7 +3464,7 @@
       </c>
       <c r="G16" s="40"/>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3339,7 +3536,7 @@
       <c r="F20" s="42"/>
       <c r="G20" s="40"/>
     </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="21" spans="1:7" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3449,15 +3646,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3560,15 +3757,15 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3594,7 +3791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.2">
+    <row r="2" spans="1:7" ht="45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3660,7 +3857,7 @@
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
     </row>
-    <row r="6" spans="1:7" ht="43.2">
+    <row r="6" spans="1:7" ht="45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3681,7 +3878,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="43.2">
+    <row r="7" spans="1:7" ht="45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3702,7 +3899,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="43.2">
+    <row r="8" spans="1:7" ht="45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3723,7 +3920,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="43.2">
+    <row r="9" spans="1:7" ht="45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3744,7 +3941,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="43.2">
+    <row r="10" spans="1:7" ht="45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3795,7 +3992,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="43.2">
+    <row r="13" spans="1:7" ht="45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3816,7 +4013,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="43.2">
+    <row r="14" spans="1:7" ht="45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3837,7 +4034,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="43.2">
+    <row r="15" spans="1:7" ht="45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3858,7 +4055,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="43.2">
+    <row r="16" spans="1:7" ht="45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3879,7 +4076,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="43.2">
+    <row r="17" spans="1:7" ht="45">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3930,7 +4127,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="43.2">
+    <row r="20" spans="1:7" ht="45">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3951,7 +4148,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="43.2">
+    <row r="21" spans="1:7" ht="45">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3972,7 +4169,7 @@
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="43.2">
+    <row r="22" spans="1:7" ht="45">
       <c r="A22" s="1">
         <v>21</v>
       </c>

--- a/REVER_DailyTracker_20201021.xlsx
+++ b/REVER_DailyTracker_20201021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998FD567-4782-460E-9556-FB12D58784FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86B32E9-EF92-4807-97D4-C4ED4944FFDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="136">
   <si>
     <t>Task</t>
   </si>
@@ -369,6 +369,87 @@
   </si>
   <si>
     <t>Access DB Migration - BIC CAMERA - 1</t>
+  </si>
+  <si>
+    <t>QMVAR-RPA</t>
+  </si>
+  <si>
+    <t>InvoiceUpdate IW/OW error correction</t>
+  </si>
+  <si>
+    <t>HAYAAI-B2B</t>
+  </si>
+  <si>
+    <t>New API for inserting job sheet details for Pickup</t>
+  </si>
+  <si>
+    <t>wip</t>
+  </si>
+  <si>
+    <t>Correction Job Details API to get Pickup Ack information</t>
+  </si>
+  <si>
+    <t>HAYAAI-B2C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In /instantfix/create and instantfix/update:
+Have added  "warranty_type":"OUT" ,so please pass this argument to this APIs,
+Also in Service request have updated job_id also now status would Requested instead of Job_in_progress,also Warranty_type is stored in RST_JOB
+Also in updateimei-&gt; API whatever parameters are passed it is stored in warranty information,the one as same as in add devices
+</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>Corrected Job details API and created new API for JobSheet.Also Created new API for technician reaching customer Place</t>
+  </si>
+  <si>
+    <t>13/10/2020</t>
+  </si>
+  <si>
+    <t>Worked on to overcome the security certificate confirmation through Windows registry Key</t>
+  </si>
+  <si>
+    <t>14/10/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAYAAI-B2B </t>
+  </si>
+  <si>
+    <t>To display JobSheet details in B2C ,Repairs tab,
+First call userissues API,in which you will get eq_stock_id.
+Pass that eq_Stock_id to this new acknowldgesheet API</t>
+  </si>
+  <si>
+    <t>15/10/2020</t>
+  </si>
+  <si>
+    <t>16/10/2020</t>
+  </si>
+  <si>
+    <t>have modified the msg and have passed customer address in Push Notification.</t>
+  </si>
+  <si>
+    <t>19/10/2020</t>
+  </si>
+  <si>
+    <t>added new company type Services, with role name as 'Srv_Admin',following functions have been added to this user.</t>
+  </si>
+  <si>
+    <t>20/10/2020</t>
+  </si>
+  <si>
+    <t>This is the latest file text wrap and subject has been changed.Subject is changed to take from table instead of hard coding so now whatever the first record and the last ssc centre it would dispkay that</t>
+  </si>
+  <si>
+    <t>21/10/2020</t>
+  </si>
+  <si>
+    <t>Rlogic -GL</t>
+  </si>
+  <si>
+    <t>Have run the files in Rlogic system to create GL.Had challenges in Excel macros</t>
   </si>
 </sst>
 </file>
@@ -551,7 +632,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -687,6 +768,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1008,15 +1095,15 @@
       <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="82.7109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="82.6640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1040,7 +1127,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1113,7 +1200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30">
+    <row r="6" spans="1:7" ht="28.8">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1209,7 +1296,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30">
+    <row r="14" spans="1:7" ht="28.8">
       <c r="D14" s="46" t="s">
         <v>41</v>
       </c>
@@ -1220,7 +1307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30">
+    <row r="15" spans="1:7" ht="28.8">
       <c r="D15" s="46" t="s">
         <v>43</v>
       </c>
@@ -1328,7 +1415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30">
+    <row r="33" spans="1:6" ht="28.8">
       <c r="A33">
         <v>11</v>
       </c>
@@ -1399,7 +1486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>14</v>
       </c>
@@ -1419,7 +1506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30">
+    <row r="40" spans="1:6" ht="28.8">
       <c r="A40">
         <v>15</v>
       </c>
@@ -1439,7 +1526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="45">
+    <row r="41" spans="1:6" ht="28.8">
       <c r="A41">
         <v>16</v>
       </c>
@@ -1550,7 +1637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30">
+    <row r="50" spans="1:6" ht="28.8">
       <c r="A50">
         <v>21</v>
       </c>
@@ -1675,15 +1762,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1786,15 +1873,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1892,19 +1979,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2182,7 +2269,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="15.75">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="15.6">
       <c r="A14" s="1">
         <v>17</v>
       </c>
@@ -2203,7 +2290,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="15.75">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="15.6">
       <c r="A15" s="1">
         <v>18</v>
       </c>
@@ -2224,7 +2311,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="15.75">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="15.6">
       <c r="A16" s="1">
         <v>19</v>
       </c>
@@ -2320,19 +2407,849 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43840</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33">
+        <v>43961</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="59">
+        <v>43992</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="60">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="59">
+        <v>44022</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="60">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="59">
+        <v>44053</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="60">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="59">
+        <v>44084</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="59">
+        <v>44175</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="60">
+        <v>0.8</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="60">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="60">
+        <v>0.3</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="60">
+        <v>0.8</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="60">
+        <v>0.8</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="60">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1">
+      <c r="A15" s="62">
+        <v>14</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="60">
+        <v>1</v>
+      </c>
+      <c r="F15" s="62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.6" customHeight="1">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="50">
+        <v>44106</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="41"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="42"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="26">
+        <v>3</v>
+      </c>
+      <c r="B4" s="50">
+        <v>44107</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="42"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="26">
+        <v>4</v>
+      </c>
+      <c r="B5" s="50">
+        <v>44108</v>
+      </c>
+      <c r="C5" s="51"/>
+      <c r="D5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" spans="1:7" ht="28.8">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21">
+        <v>44109</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="22">
+        <v>1</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="28.8">
+      <c r="A7" s="20">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21">
+        <v>44110</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21">
+        <v>44111</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21">
+        <v>44112</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="43.2">
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
+      <c r="B10" s="21">
+        <v>44113</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="26">
+        <v>10</v>
+      </c>
+      <c r="B11" s="50">
+        <v>44114</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="26">
+        <v>11</v>
+      </c>
+      <c r="B12" s="50">
+        <v>44115</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="20">
+        <v>12</v>
+      </c>
+      <c r="B13" s="21">
+        <v>44116</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="22">
+        <v>1</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="20">
+        <v>13</v>
+      </c>
+      <c r="B14" s="21">
+        <v>44117</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="22">
+        <v>1</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="28.8">
+      <c r="A15" s="20">
+        <v>14</v>
+      </c>
+      <c r="B15" s="21">
+        <v>44118</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="22">
+        <v>1</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="28.8">
+      <c r="A16" s="20">
+        <v>15</v>
+      </c>
+      <c r="B16" s="21">
+        <v>44119</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="22">
+        <v>1</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="28.8">
+      <c r="A17" s="20">
+        <v>16</v>
+      </c>
+      <c r="B17" s="21">
+        <v>44120</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="22">
+        <v>1</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="26">
+        <v>17</v>
+      </c>
+      <c r="B18" s="50">
+        <v>44114</v>
+      </c>
+      <c r="C18" s="51"/>
+      <c r="D18" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="26">
+        <v>18</v>
+      </c>
+      <c r="B19" s="50">
+        <v>44115</v>
+      </c>
+      <c r="C19" s="51"/>
+      <c r="D19" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="28.8">
+      <c r="A20" s="20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="21">
+        <v>44123</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="22">
+        <v>1</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="20">
+        <v>20</v>
+      </c>
+      <c r="B21" s="21">
+        <v>44124</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="20">
+        <v>21</v>
+      </c>
+      <c r="B22" s="21">
+        <v>44125</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="C24" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="8"/>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="9"/>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" s="10"/>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" s="11"/>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2427,23 +3344,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G28"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2469,490 +3386,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A2" s="20">
+    <row r="2" spans="1:7" ht="28.8">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="21">
         <v>44105</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="22">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="26">
-        <v>2</v>
-      </c>
-      <c r="B3" s="50">
-        <v>44106</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="42"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="26">
-        <v>3</v>
-      </c>
-      <c r="B4" s="50">
-        <v>44107</v>
-      </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="42"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="26">
-        <v>4</v>
-      </c>
-      <c r="B5" s="50">
-        <v>44108</v>
-      </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="42"/>
-    </row>
-    <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="20">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21">
-        <v>44109</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="22">
-        <v>1</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="20">
-        <v>6</v>
-      </c>
-      <c r="B7" s="21">
-        <v>44110</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="22">
-        <v>1</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="20">
-        <v>7</v>
-      </c>
-      <c r="B8" s="21">
-        <v>44111</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="F8" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="20">
-        <v>8</v>
-      </c>
-      <c r="B9" s="21">
-        <v>44112</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="22">
-        <v>0.8</v>
-      </c>
-      <c r="F9" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="45">
-      <c r="A10" s="20">
-        <v>9</v>
-      </c>
-      <c r="B10" s="21">
-        <v>44113</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="22">
-        <v>1</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="26">
-        <v>10</v>
-      </c>
-      <c r="B11" s="50">
-        <v>44114</v>
-      </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="26">
-        <v>11</v>
-      </c>
-      <c r="B12" s="50">
-        <v>44115</v>
-      </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="20">
-        <v>12</v>
-      </c>
-      <c r="B13" s="21">
-        <v>44116</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="22">
-        <v>1</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="20">
-        <v>13</v>
-      </c>
-      <c r="B14" s="21">
-        <v>44117</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="22">
-        <v>1</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="30">
-      <c r="A15" s="20">
-        <v>14</v>
-      </c>
-      <c r="B15" s="21">
-        <v>44118</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="22">
-        <v>1</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="45">
-      <c r="A16" s="20">
-        <v>15</v>
-      </c>
-      <c r="B16" s="21">
-        <v>44119</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="22">
-        <v>1</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="30">
-      <c r="A17" s="20">
         <v>16</v>
       </c>
-      <c r="B17" s="21">
-        <v>44120</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="22">
-        <v>1</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="26">
+      <c r="D2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="50">
-        <v>44114</v>
-      </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="26">
+      <c r="E2" s="28">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="50">
-        <v>44115</v>
-      </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="30">
-      <c r="A20" s="20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="21">
-        <v>44123</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="22">
-        <v>1</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="20">
-        <v>20</v>
-      </c>
-      <c r="B21" s="21">
-        <v>44124</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="F21" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="20">
-        <v>21</v>
-      </c>
-      <c r="B22" s="21">
-        <v>44125</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="22">
-        <v>1</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="C24" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25" s="8"/>
-      <c r="C25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="B26" s="9"/>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="B27" s="10"/>
-      <c r="C27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="B28" s="11"/>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -3014,23 +3469,522 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.6" customHeight="1">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="22">
+        <v>1</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="31">
+        <v>44106</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="31">
+        <v>44107</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="31">
+        <v>44108</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="31">
+        <v>44109</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="31">
+        <v>44110</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="40"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="31">
+        <v>44111</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="40"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="31">
+        <v>44112</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="31">
+        <v>44113</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="31">
+        <v>44114</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="31">
+        <v>44115</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="31">
+        <v>44116</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="40"/>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="31">
+        <v>44117</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="31">
+        <v>44118</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="31">
+        <v>44119</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="31">
+        <v>44120</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="31">
+        <v>44121</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="31">
+        <v>44122</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="31">
+        <v>44123</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="1:7" s="4" customFormat="1">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="31">
+        <v>44124</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+      <c r="F22" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="1:7" s="4" customFormat="1">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="31">
+        <v>44125</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="40"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="D28" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="C29" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="C30" s="9"/>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="C31" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="C32" s="11"/>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3056,28 +4010,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21">
-        <v>44105</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="28">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>18</v>
-      </c>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -3139,616 +4079,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A2" s="20">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21">
-        <v>44105</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="22">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="26">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21">
-        <v>44105</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="22">
-        <v>1</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="31">
-        <v>44106</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="31">
-        <v>44107</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="31">
-        <v>44108</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="31">
-        <v>44109</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="40"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="31">
-        <v>44110</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="40"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="31">
-        <v>44111</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="40"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="31">
-        <v>44112</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="40"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="31">
-        <v>44113</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="F11" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="40"/>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="31">
-        <v>44114</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="40"/>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="31">
-        <v>44115</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="40"/>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="31">
-        <v>44116</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="40"/>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="31">
-        <v>44117</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="40"/>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="31">
-        <v>44118</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="40"/>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="31">
-        <v>44119</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="40"/>
-    </row>
-    <row r="18" spans="1:7" s="4" customFormat="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="31">
-        <v>44120</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="40"/>
-    </row>
-    <row r="19" spans="1:7" s="4" customFormat="1">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="31">
-        <v>44121</v>
-      </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="40"/>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="31">
-        <v>44122</v>
-      </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="40"/>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="31">
-        <v>44123</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="40"/>
-    </row>
-    <row r="22" spans="1:7" s="4" customFormat="1">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="31">
-        <v>44124</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1</v>
-      </c>
-      <c r="F22" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="40"/>
-    </row>
-    <row r="23" spans="1:7" s="4" customFormat="1">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="31">
-        <v>44125</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="F23" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="40"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="D28" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="C29" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="C30" s="9"/>
-      <c r="D30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="C31" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="C32" s="11"/>
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
   <dimension ref="A1:G29"/>
@@ -3757,15 +4087,15 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3791,7 +4121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45">
+    <row r="2" spans="1:7" ht="43.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3857,7 +4187,7 @@
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
     </row>
-    <row r="6" spans="1:7" ht="45">
+    <row r="6" spans="1:7" ht="43.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3878,7 +4208,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="45">
+    <row r="7" spans="1:7" ht="43.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3899,7 +4229,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="45">
+    <row r="8" spans="1:7" ht="43.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3920,7 +4250,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="45">
+    <row r="9" spans="1:7" ht="43.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3941,7 +4271,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="45">
+    <row r="10" spans="1:7" ht="43.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3992,7 +4322,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="45">
+    <row r="13" spans="1:7" ht="43.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4013,7 +4343,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="45">
+    <row r="14" spans="1:7" ht="43.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4034,7 +4364,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="45">
+    <row r="15" spans="1:7" ht="43.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4055,7 +4385,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="45">
+    <row r="16" spans="1:7" ht="43.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4076,7 +4406,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="45">
+    <row r="17" spans="1:7" ht="43.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4127,7 +4457,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="45">
+    <row r="20" spans="1:7" ht="43.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4148,7 +4478,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="45">
+    <row r="21" spans="1:7" ht="43.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4169,7 +4499,7 @@
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="45">
+    <row r="22" spans="1:7" ht="43.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
